--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
@@ -4713,12 +4713,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>16258107017</t>
+          <t>16313779747</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>L29504920214</t>
+          <t>M90095616072</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4878,27 +4878,27 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>16313779747</t>
+          <t>15923049682</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>M90095616072</t>
+          <t>L2284E5120400</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>15923049682</t>
+          <t>16313779742</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>L2284E5120400</t>
+          <t>M50295417971</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,12 +4908,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>16313779742</t>
+          <t>16258107017</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>M50295417971</t>
+          <t>L29504920214</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>15913120945</t>
+          <t>16283023689</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>L28955517230</t>
+          <t>L22985417002</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>16313779497</t>
+          <t>15913120945</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CKJ246135019309</t>
+          <t>L28955517230</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>16313779520</t>
+          <t>16313779497</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CK245145217031</t>
+          <t>CKJ246135019309</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>16283023686</t>
+          <t>16283023698</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>L23015318424</t>
+          <t>ZS24719S5418239</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>16142441307</t>
+          <t>16313779520</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>DK50575316425</t>
+          <t>CK245145217031</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>16283023698</t>
+          <t>16258106818</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>ZS24719S5418239</t>
+          <t>CKJ236265416400</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>16258106818</t>
+          <t>16258106814</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>CKJ236265416400</t>
+          <t>CKJ23624S5418450</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>16258106814</t>
+          <t>16142441307</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CKJ23624S5418450</t>
+          <t>DK50575316425</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>16283023689</t>
+          <t>16029485334</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>L22985417002</t>
+          <t>CKJ22639S5515400</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>16029485334</t>
+          <t>16029485336</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>CKJ22639S5515400</t>
+          <t>CKJ22639S5515675</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>16029485336</t>
+          <t>16029485513</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>CKJ22639S5515675</t>
+          <t>N6253S5618031</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>16029485513</t>
+          <t>16258106937</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>N6253S5618031</t>
+          <t>SF1087S5618058</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,27 +8193,27 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>16258106937</t>
+          <t>16402637009</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SF1087S5618058</t>
+          <t>LO2742L5216251</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>16402637009</t>
+          <t>16025998874</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>LO2742L5216251</t>
+          <t>CKJ236125516300</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>16025998874</t>
+          <t>16313779515</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>CKJ236125516300</t>
+          <t>CK23509S5122438</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>16313779515</t>
+          <t>16283023680</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>CK23509S5122438</t>
+          <t>L29475418410</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>16402637403</t>
+          <t>16283023686</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>ZS224005617070</t>
+          <t>L23015318424</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>16283023680</t>
+          <t>16402636499</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>L29475418410</t>
+          <t>CK245155219240</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>16402636499</t>
+          <t>16402637403</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>CK245155219240</t>
+          <t>ZS224005617070</t>
         </is>
       </c>
       <c r="C546" t="n">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -17112,7 +17112,7 @@
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114">
@@ -17142,7 +17142,7 @@
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -17157,7 +17157,7 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -17172,7 +17172,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -17187,7 +17187,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -17217,7 +17217,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -17232,7 +17232,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -17247,7 +17247,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -17262,7 +17262,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -17322,7 +17322,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -17337,7 +17337,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -17382,7 +17382,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -17412,7 +17412,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134">
@@ -17442,7 +17442,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135">
@@ -17457,7 +17457,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -17472,7 +17472,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137">
@@ -17487,7 +17487,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139">
@@ -17517,7 +17517,7 @@
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141">
@@ -17547,7 +17547,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142">
@@ -17562,7 +17562,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144">
@@ -17592,7 +17592,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146">
@@ -17622,7 +17622,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -17667,7 +17667,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151">
@@ -17697,7 +17697,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152">
@@ -17712,7 +17712,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154">
@@ -17742,7 +17742,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155">
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156">
@@ -17772,7 +17772,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157">
@@ -17787,7 +17787,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159">
@@ -17817,7 +17817,7 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160">
@@ -17832,7 +17832,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -17862,7 +17862,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164">
@@ -17892,7 +17892,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165">
@@ -17907,7 +17907,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166">
@@ -17922,7 +17922,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -17937,7 +17937,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -17967,7 +17967,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -17982,7 +17982,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171">
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172">
@@ -18012,7 +18012,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174">
@@ -18042,7 +18042,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175">
@@ -18057,7 +18057,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176">
@@ -18072,7 +18072,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180">
@@ -18132,7 +18132,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182">
@@ -18162,7 +18162,7 @@
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184">
@@ -18192,7 +18192,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185">
@@ -18207,7 +18207,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186">
@@ -18222,7 +18222,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187">
@@ -18237,7 +18237,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189">
@@ -18267,7 +18267,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190">
@@ -18282,7 +18282,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191">
@@ -18297,7 +18297,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192">
@@ -18312,7 +18312,7 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194">
@@ -18342,7 +18342,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195">
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196">
@@ -18372,7 +18372,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199">
@@ -18417,7 +18417,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201">
@@ -18447,7 +18447,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202">
@@ -18462,7 +18462,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204">
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205">
@@ -18507,7 +18507,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206">
@@ -18522,7 +18522,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207">
@@ -18537,7 +18537,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210">
@@ -18582,7 +18582,7 @@
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211">
@@ -18597,7 +18597,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212">
@@ -18612,7 +18612,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214">
@@ -18642,7 +18642,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215">
@@ -18657,7 +18657,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216">
@@ -18672,7 +18672,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217">
@@ -18687,7 +18687,7 @@
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219">
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="C1219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220">
@@ -18732,7 +18732,7 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221">
@@ -18747,7 +18747,7 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222">
@@ -18762,7 +18762,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224">
@@ -18792,7 +18792,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226">
@@ -18822,7 +18822,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227">
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229">
@@ -18867,7 +18867,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230">
@@ -18882,7 +18882,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231">
@@ -18897,7 +18897,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -18912,7 +18912,7 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234">
@@ -18942,7 +18942,7 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235">
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236">
@@ -18972,7 +18972,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237">
@@ -18987,7 +18987,7 @@
         </is>
       </c>
       <c r="C1237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239">
@@ -19017,7 +19017,7 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240">
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242">
@@ -19062,7 +19062,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244">
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245">
@@ -19107,7 +19107,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246">
@@ -19122,7 +19122,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247">
@@ -19137,7 +19137,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249">
@@ -19167,7 +19167,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250">
@@ -19182,7 +19182,7 @@
         </is>
       </c>
       <c r="C1250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251">
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252">
@@ -19212,7 +19212,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254">
@@ -19242,7 +19242,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255">
@@ -19257,7 +19257,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256">
@@ -19272,7 +19272,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259">
@@ -19317,7 +19317,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260">
@@ -19332,7 +19332,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261">
@@ -19347,7 +19347,7 @@
         </is>
       </c>
       <c r="C1261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262">
@@ -19362,7 +19362,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264">
@@ -19392,7 +19392,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265">
@@ -19407,7 +19407,7 @@
         </is>
       </c>
       <c r="C1265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266">
@@ -19422,7 +19422,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267">
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269">
@@ -19467,7 +19467,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270">
@@ -19482,7 +19482,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271">
@@ -19497,7 +19497,7 @@
         </is>
       </c>
       <c r="C1271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272">
@@ -19512,7 +19512,7 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274">
@@ -19542,7 +19542,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275">
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="C1275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276">
@@ -19572,7 +19572,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277">
@@ -19587,7 +19587,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="C1278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279">
@@ -19617,7 +19617,7 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280">
@@ -19632,7 +19632,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281">
@@ -19647,7 +19647,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282">
@@ -19662,7 +19662,7 @@
         </is>
       </c>
       <c r="C1282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284">
@@ -19692,7 +19692,7 @@
         </is>
       </c>
       <c r="C1284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285">
@@ -19707,7 +19707,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286">
@@ -19722,7 +19722,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287">
@@ -19737,7 +19737,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290">
@@ -19782,7 +19782,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="C1291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
@@ -19812,7 +19812,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294">
@@ -19842,7 +19842,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -19857,7 +19857,7 @@
         </is>
       </c>
       <c r="C1295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296">
@@ -19872,7 +19872,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297">
@@ -19887,7 +19887,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -19932,7 +19932,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -19947,7 +19947,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302">
@@ -19962,7 +19962,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304">
@@ -19992,7 +19992,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306">
@@ -20022,7 +20022,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -20037,7 +20037,7 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309">
@@ -20067,7 +20067,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310">
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -20097,7 +20097,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312">
@@ -20112,7 +20112,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="C1313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314">
@@ -20142,7 +20142,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315">
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316">
@@ -20172,7 +20172,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317">
@@ -20187,7 +20187,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319">
@@ -20217,7 +20217,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320">
@@ -20232,7 +20232,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322">
@@ -20262,7 +20262,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324">
@@ -20292,7 +20292,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325">
@@ -20307,7 +20307,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326">
@@ -20322,7 +20322,7 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327">
@@ -20337,7 +20337,7 @@
         </is>
       </c>
       <c r="C1327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329">
@@ -20367,7 +20367,7 @@
         </is>
       </c>
       <c r="C1329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331">
@@ -20397,7 +20397,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332">
@@ -20412,7 +20412,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334">
@@ -20442,7 +20442,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335">
@@ -20457,7 +20457,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336">
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="C1336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339">
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340">
@@ -20532,7 +20532,7 @@
         </is>
       </c>
       <c r="C1340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341">
@@ -20547,7 +20547,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342">
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="C1342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="C1343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344">
@@ -20592,7 +20592,7 @@
         </is>
       </c>
       <c r="C1344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345">
@@ -20607,7 +20607,7 @@
         </is>
       </c>
       <c r="C1345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346">
@@ -20622,7 +20622,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347">
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349">
@@ -20667,7 +20667,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -20682,7 +20682,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -20697,7 +20697,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1352">
@@ -20712,7 +20712,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1353">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="C1353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -20742,7 +20742,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355">
@@ -20757,7 +20757,7 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1356">
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357">
@@ -20787,7 +20787,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1359">
@@ -20817,7 +20817,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360">
@@ -20832,7 +20832,7 @@
         </is>
       </c>
       <c r="C1360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1361">
@@ -20847,7 +20847,7 @@
         </is>
       </c>
       <c r="C1361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362">
@@ -20862,7 +20862,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364">
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1365">
@@ -20907,7 +20907,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1366">
@@ -20922,7 +20922,7 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1367">
@@ -20937,7 +20937,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="C1369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1371">
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372">
@@ -21012,7 +21012,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="C1373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375">
@@ -21057,7 +21057,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376">
@@ -21072,7 +21072,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1377">
@@ -21087,7 +21087,7 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1378">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1379">
@@ -21117,7 +21117,7 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1380">
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1381">
@@ -21147,7 +21147,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382">
@@ -21162,7 +21162,7 @@
         </is>
       </c>
       <c r="C1382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1383">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1384">
@@ -21192,7 +21192,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1385">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1386">
@@ -21222,7 +21222,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1387">
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="C1388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389">
@@ -21267,7 +21267,7 @@
         </is>
       </c>
       <c r="C1389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390">
@@ -21282,7 +21282,7 @@
         </is>
       </c>
       <c r="C1390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391">
@@ -21297,7 +21297,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1392">
@@ -21312,7 +21312,7 @@
         </is>
       </c>
       <c r="C1392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="C1393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1394">
@@ -21342,7 +21342,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1395">
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1396">
@@ -21372,7 +21372,7 @@
         </is>
       </c>
       <c r="C1396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1397">
@@ -21387,7 +21387,7 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="C1398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1399">
@@ -21417,7 +21417,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1400">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="C1400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1402">
@@ -21462,7 +21462,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404">
@@ -21492,7 +21492,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
@@ -21507,7 +21507,7 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406">
@@ -21522,7 +21522,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1407">
@@ -21537,7 +21537,7 @@
         </is>
       </c>
       <c r="C1407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1408">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409">
@@ -21567,7 +21567,7 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1410">
@@ -21582,7 +21582,7 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411">
@@ -21597,7 +21597,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1412">
@@ -21612,7 +21612,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1413">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="C1413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414">
@@ -21642,7 +21642,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415">
@@ -21657,7 +21657,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -21672,7 +21672,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="C1417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1418">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1419">
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1421">
@@ -21747,7 +21747,7 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422">
@@ -21762,7 +21762,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1423">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -21792,7 +21792,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -21807,7 +21807,7 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
@@ -21822,7 +21822,7 @@
         </is>
       </c>
       <c r="C1426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -21837,7 +21837,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -21867,7 +21867,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -21882,7 +21882,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431">
@@ -21897,7 +21897,7 @@
         </is>
       </c>
       <c r="C1431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1432">
@@ -21912,7 +21912,7 @@
         </is>
       </c>
       <c r="C1432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1433">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434">
@@ -21942,7 +21942,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1435">
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="C1435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -21972,7 +21972,7 @@
         </is>
       </c>
       <c r="C1436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1437">
@@ -21987,7 +21987,7 @@
         </is>
       </c>
       <c r="C1437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439">
@@ -22017,7 +22017,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="C1440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441">
@@ -22047,7 +22047,7 @@
         </is>
       </c>
       <c r="C1441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="C1442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1443">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="C1443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -22092,7 +22092,7 @@
         </is>
       </c>
       <c r="C1444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445">
@@ -22107,7 +22107,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446">
@@ -22122,7 +22122,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1447">
@@ -22137,7 +22137,7 @@
         </is>
       </c>
       <c r="C1447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1448">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="C1448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1449">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="C1449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450">
@@ -22182,7 +22182,7 @@
         </is>
       </c>
       <c r="C1450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1451">
@@ -22197,7 +22197,7 @@
         </is>
       </c>
       <c r="C1451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -22212,7 +22212,7 @@
         </is>
       </c>
       <c r="C1452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1453">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="C1453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -22242,7 +22242,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455">
@@ -22257,7 +22257,7 @@
         </is>
       </c>
       <c r="C1455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456">
@@ -22272,7 +22272,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1457">
@@ -22287,7 +22287,7 @@
         </is>
       </c>
       <c r="C1457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="C1458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1459">
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="C1459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -22332,7 +22332,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461">
@@ -22347,7 +22347,7 @@
         </is>
       </c>
       <c r="C1461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1462">
@@ -22362,7 +22362,7 @@
         </is>
       </c>
       <c r="C1462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1463">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1464">
@@ -22392,7 +22392,7 @@
         </is>
       </c>
       <c r="C1464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466">
@@ -22422,7 +22422,7 @@
         </is>
       </c>
       <c r="C1466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1467">
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="C1467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1468">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="C1468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="C1469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1470">
@@ -22482,7 +22482,7 @@
         </is>
       </c>
       <c r="C1470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471">
@@ -22497,7 +22497,7 @@
         </is>
       </c>
       <c r="C1471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1472">
@@ -22512,7 +22512,7 @@
         </is>
       </c>
       <c r="C1472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1473">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1474">
@@ -22542,7 +22542,7 @@
         </is>
       </c>
       <c r="C1474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1475">
@@ -22557,7 +22557,7 @@
         </is>
       </c>
       <c r="C1475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476">
@@ -22572,7 +22572,7 @@
         </is>
       </c>
       <c r="C1476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477">
@@ -22587,7 +22587,7 @@
         </is>
       </c>
       <c r="C1477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1478">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="C1478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479">
@@ -22617,7 +22617,7 @@
         </is>
       </c>
       <c r="C1479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1480">
@@ -22632,7 +22632,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1481">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="C1481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482">
@@ -22662,7 +22662,7 @@
         </is>
       </c>
       <c r="C1482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="C1483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1484">
@@ -22692,7 +22692,7 @@
         </is>
       </c>
       <c r="C1484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1485">
@@ -22707,7 +22707,7 @@
         </is>
       </c>
       <c r="C1485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1486">
@@ -22722,7 +22722,7 @@
         </is>
       </c>
       <c r="C1486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487">
@@ -22737,7 +22737,7 @@
         </is>
       </c>
       <c r="C1487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1488">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="C1488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1489">
@@ -22767,7 +22767,7 @@
         </is>
       </c>
       <c r="C1489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1490">
@@ -22782,7 +22782,7 @@
         </is>
       </c>
       <c r="C1490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1491">
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="C1491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492">
@@ -22812,7 +22812,7 @@
         </is>
       </c>
       <c r="C1492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1493">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="C1493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1494">
@@ -22842,7 +22842,7 @@
         </is>
       </c>
       <c r="C1494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1495">
@@ -22857,7 +22857,7 @@
         </is>
       </c>
       <c r="C1495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1496">
@@ -22872,7 +22872,7 @@
         </is>
       </c>
       <c r="C1496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1497">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1498">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="C1498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1499">
@@ -22917,7 +22917,7 @@
         </is>
       </c>
       <c r="C1499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500">
@@ -22932,7 +22932,7 @@
         </is>
       </c>
       <c r="C1500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1501">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="C1501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502">
@@ -22962,7 +22962,7 @@
         </is>
       </c>
       <c r="C1502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1503">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504">
@@ -22992,7 +22992,7 @@
         </is>
       </c>
       <c r="C1504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -23007,7 +23007,7 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506">
@@ -23022,7 +23022,7 @@
         </is>
       </c>
       <c r="C1506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1507">
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1508">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="C1508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509">
@@ -23067,7 +23067,7 @@
         </is>
       </c>
       <c r="C1509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1510">
@@ -23082,7 +23082,7 @@
         </is>
       </c>
       <c r="C1510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1511">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="C1511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1512">
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="C1512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1513">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="C1513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1514">
@@ -23142,7 +23142,7 @@
         </is>
       </c>
       <c r="C1514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515">
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="C1515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1516">
@@ -23172,7 +23172,7 @@
         </is>
       </c>
       <c r="C1516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1517">
@@ -23187,7 +23187,7 @@
         </is>
       </c>
       <c r="C1517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1518">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="C1518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1519">
@@ -23217,7 +23217,7 @@
         </is>
       </c>
       <c r="C1519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520">
@@ -23232,7 +23232,7 @@
         </is>
       </c>
       <c r="C1520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521">
@@ -23247,7 +23247,7 @@
         </is>
       </c>
       <c r="C1521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1522">
@@ -23262,7 +23262,7 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1523">
